--- a/OriginalContagionGauss/OriginalContagionGauss_resultsIn.xlsx
+++ b/OriginalContagionGauss/OriginalContagionGauss_resultsIn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -15,20 +15,20 @@
     <sheet name="1984" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_1980solution" localSheetId="1">'1980'!$A$1:$I$55</definedName>
-    <definedName name="_1981solution" localSheetId="2">'1981'!$A$1:$I$55</definedName>
-    <definedName name="_1982solution" localSheetId="3">'1982'!$A$1:$I$55</definedName>
-    <definedName name="_1983solution" localSheetId="4">'1983'!$A$1:$I$55</definedName>
-    <definedName name="_1984solution" localSheetId="5">'1984'!$A$1:$I$55</definedName>
+    <definedName name="_1980solution" localSheetId="1">'1980'!$A$1:$I$57</definedName>
+    <definedName name="_1981solution" localSheetId="2">'1981'!$A$1:$I$57</definedName>
+    <definedName name="_1982solution" localSheetId="3">'1982'!$A$1:$I$57</definedName>
+    <definedName name="_1983solution" localSheetId="4">'1983'!$A$1:$I$57</definedName>
+    <definedName name="_1984solution" localSheetId="5">'1984'!$A$1:$I$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="1980solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalContagionGauss\RawOut\1980.solution.txt" space="1" consecutive="1">
+  <connection id="1" name="1980solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalContagionGauss\RawOut\1980.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -36,8 +36,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="1981solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalContagionGauss\RawOut\1981.solution.txt" space="1" consecutive="1">
+  <connection id="2" name="1981solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalContagionGauss\RawOut\1981.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -45,8 +45,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="1982solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalContagionGauss\RawOut\1982.solution.txt" space="1" consecutive="1">
+  <connection id="3" name="1982solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalContagionGauss\RawOut\1982.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -54,8 +54,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="1983solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalContagionGauss\RawOut\1983.solution.txt" space="1" consecutive="1">
+  <connection id="4" name="1983solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalContagionGauss\RawOut\1983.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -63,8 +63,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="1984solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\originalContagionGauss\RawOut\1984.solution.txt" space="1" consecutive="1">
+  <connection id="5" name="1984solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalContagionGauss\RawOut\1984.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -240,9 +240,6 @@
     <t>sigmaG</t>
   </si>
   <si>
-    <t>sigmaI</t>
-  </si>
-  <si>
     <t>Quantiles</t>
   </si>
   <si>
@@ -279,24 +276,27 @@
     <t>psrf</t>
   </si>
   <si>
-    <t>11001:21000</t>
-  </si>
-  <si>
     <t>Contagion</t>
   </si>
   <si>
     <t>OriginalContagionGauss</t>
+  </si>
+  <si>
+    <t>101001:201000</t>
+  </si>
+  <si>
+    <t>sigmaA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -484,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,19 +658,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,36 +822,36 @@
         <v>Cai_median</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>1980</v>
       </c>
       <c r="C2">
         <f>VLOOKUP(C1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.55432999999999999</v>
+        <v>0.50226000000000004</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(D1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.49186000000000002</v>
+        <v>0.52071000000000001</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(E1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.44938</v>
+        <v>0.49360999999999999</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(F1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.51424999999999998</v>
+        <v>0.49192000000000002</v>
       </c>
       <c r="G2">
         <f>VLOOKUP(G1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.54515999999999998</v>
+        <v>0.49995000000000001</v>
       </c>
       <c r="H2">
         <f>VLOOKUP(H1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.49484</v>
+        <v>0.49959999999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -875,19 +873,19 @@
       </c>
       <c r="O2">
         <f>VLOOKUP(O1,'1980'!$K:$L,2,FALSE)</f>
-        <v>-85.85</v>
+        <v>-108.3</v>
       </c>
       <c r="P2">
         <f>VLOOKUP(P1,'1980'!$K:$L,2,FALSE)</f>
-        <v>6.48</v>
+        <v>5.282</v>
       </c>
       <c r="Q2">
         <f>VLOOKUP(Q1,'1980'!$K:$L,2,FALSE)</f>
-        <v>-79.37</v>
+        <v>-103</v>
       </c>
       <c r="R2">
         <f>VLOOKUP(R1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f>VLOOKUP(S1,'1980'!$K:$L,2,FALSE)</f>
@@ -907,11 +905,11 @@
       </c>
       <c r="W2">
         <f>VLOOKUP(W1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <f>VLOOKUP(X1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="e">
         <f>VLOOKUP(Y1,'1980'!$K:$L,2,FALSE)</f>
@@ -939,27 +937,27 @@
       </c>
       <c r="AE2">
         <f>VLOOKUP(AE1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.57737000000000005</v>
+        <v>0.50188999999999995</v>
       </c>
       <c r="AF2">
         <f>VLOOKUP(AF1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.49135000000000001</v>
+        <v>0.52564</v>
       </c>
       <c r="AG2">
         <f>VLOOKUP(AG1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.43080000000000002</v>
+        <v>0.49179</v>
       </c>
       <c r="AH2">
         <f>VLOOKUP(AH1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.51856000000000002</v>
+        <v>0.49619999999999997</v>
       </c>
       <c r="AI2">
         <f>VLOOKUP(AI1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.55927000000000004</v>
+        <v>0.50044</v>
       </c>
       <c r="AJ2">
         <f>VLOOKUP(AJ1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.502</v>
+        <v>0.49978</v>
       </c>
       <c r="AK2" t="e">
         <f>VLOOKUP(AK1,'1980'!$K:$L,2,FALSE)</f>
@@ -986,36 +984,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1981</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(C1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.60153000000000001</v>
+        <v>0.48369000000000001</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(D1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.46356000000000003</v>
+        <v>0.53463000000000005</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(E1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.40514</v>
+        <v>0.51544000000000001</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(F1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.50463999999999998</v>
+        <v>0.46869</v>
       </c>
       <c r="G3">
         <f>VLOOKUP(G1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.54508999999999996</v>
+        <v>0.50031999999999999</v>
       </c>
       <c r="H3">
         <f>VLOOKUP(H1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.41707</v>
+        <v>0.50021000000000004</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1037,19 +1035,19 @@
       </c>
       <c r="O3">
         <f>VLOOKUP(O1,'1981'!$K:$L,2,FALSE)</f>
-        <v>-89.43</v>
+        <v>-102.6</v>
       </c>
       <c r="P3">
         <f>VLOOKUP(P1,'1981'!$K:$L,2,FALSE)</f>
-        <v>7.1849999999999996</v>
+        <v>5.6529999999999996</v>
       </c>
       <c r="Q3">
         <f>VLOOKUP(Q1,'1981'!$K:$L,2,FALSE)</f>
-        <v>-82.25</v>
+        <v>-96.97</v>
       </c>
       <c r="R3">
         <f>VLOOKUP(R1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f>VLOOKUP(S1,'1981'!$K:$L,2,FALSE)</f>
@@ -1069,11 +1067,11 @@
       </c>
       <c r="W3">
         <f>VLOOKUP(W1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f>VLOOKUP(X1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="e">
         <f>VLOOKUP(Y1,'1981'!$K:$L,2,FALSE)</f>
@@ -1101,27 +1099,27 @@
       </c>
       <c r="AE3">
         <f>VLOOKUP(AE1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.63188</v>
+        <v>0.48122999999999999</v>
       </c>
       <c r="AF3">
         <f>VLOOKUP(AF1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.45551999999999998</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="AG3">
         <f>VLOOKUP(AG1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.37719000000000003</v>
+        <v>0.51829000000000003</v>
       </c>
       <c r="AH3">
         <f>VLOOKUP(AH1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.50327999999999995</v>
+        <v>0.46767999999999998</v>
       </c>
       <c r="AI3">
         <f>VLOOKUP(AI1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.54083999999999999</v>
+        <v>0.50019999999999998</v>
       </c>
       <c r="AJ3">
         <f>VLOOKUP(AJ1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.40218999999999999</v>
+        <v>0.50063000000000002</v>
       </c>
       <c r="AK3" t="e">
         <f>VLOOKUP(AK1,'1981'!$K:$L,2,FALSE)</f>
@@ -1148,36 +1146,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>1982</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(C1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.63668999999999998</v>
+        <v>0.48569000000000001</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(D1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.47632000000000002</v>
+        <v>0.55820999999999998</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(E1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.35893999999999998</v>
+        <v>0.51502000000000003</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(F1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.53383000000000003</v>
+        <v>0.43923000000000001</v>
       </c>
       <c r="G4">
         <f>VLOOKUP(G1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.58311999999999997</v>
+        <v>0.50026999999999999</v>
       </c>
       <c r="H4">
         <f>VLOOKUP(H1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.41733999999999999</v>
+        <v>0.49998999999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1199,15 +1197,15 @@
       </c>
       <c r="O4">
         <f>VLOOKUP(O1,'1982'!$K:$L,2,FALSE)</f>
-        <v>-75.319999999999993</v>
+        <v>-91.96</v>
       </c>
       <c r="P4">
         <f>VLOOKUP(P1,'1982'!$K:$L,2,FALSE)</f>
-        <v>6.8920000000000003</v>
+        <v>5.2530000000000001</v>
       </c>
       <c r="Q4">
         <f>VLOOKUP(Q1,'1982'!$K:$L,2,FALSE)</f>
-        <v>-68.430000000000007</v>
+        <v>-86.71</v>
       </c>
       <c r="R4">
         <f>VLOOKUP(R1,'1982'!$K:$L,2,FALSE)</f>
@@ -1263,27 +1261,27 @@
       </c>
       <c r="AE4">
         <f>VLOOKUP(AE1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.67879999999999996</v>
+        <v>0.48238999999999999</v>
       </c>
       <c r="AF4">
         <f>VLOOKUP(AF1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.47464000000000001</v>
+        <v>0.55944000000000005</v>
       </c>
       <c r="AG4">
         <f>VLOOKUP(AG1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.31635000000000002</v>
+        <v>0.51846999999999999</v>
       </c>
       <c r="AH4">
         <f>VLOOKUP(AH1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.54117999999999999</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="AI4">
         <f>VLOOKUP(AI1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.59180999999999995</v>
+        <v>0.50046999999999997</v>
       </c>
       <c r="AJ4">
         <f>VLOOKUP(AJ1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.41048000000000001</v>
+        <v>0.50033000000000005</v>
       </c>
       <c r="AK4" t="e">
         <f>VLOOKUP(AK1,'1982'!$K:$L,2,FALSE)</f>
@@ -1310,36 +1308,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1983</v>
       </c>
       <c r="C5">
         <f>VLOOKUP(C1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.71543000000000001</v>
+        <v>0.56671000000000005</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(D1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.48221000000000003</v>
+        <v>0.56283000000000005</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(E1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.27745999999999998</v>
+        <v>0.43506</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(F1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.50226000000000004</v>
+        <v>0.43576999999999999</v>
       </c>
       <c r="G5">
         <f>VLOOKUP(G1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.59341999999999995</v>
+        <v>0.50041999999999998</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(H1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.39767000000000002</v>
+        <v>0.50012000000000001</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1361,15 +1359,15 @@
       </c>
       <c r="O5">
         <f>VLOOKUP(O1,'1983'!$K:$L,2,FALSE)</f>
-        <v>-75.349999999999994</v>
+        <v>-91.7</v>
       </c>
       <c r="P5">
         <f>VLOOKUP(P1,'1983'!$K:$L,2,FALSE)</f>
-        <v>6.8819999999999997</v>
+        <v>5.4580000000000002</v>
       </c>
       <c r="Q5">
         <f>VLOOKUP(Q1,'1983'!$K:$L,2,FALSE)</f>
-        <v>-68.47</v>
+        <v>-86.24</v>
       </c>
       <c r="R5">
         <f>VLOOKUP(R1,'1983'!$K:$L,2,FALSE)</f>
@@ -1425,27 +1423,27 @@
       </c>
       <c r="AE5">
         <f>VLOOKUP(AE1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.76414000000000004</v>
+        <v>0.58176000000000005</v>
       </c>
       <c r="AF5">
         <f>VLOOKUP(AF1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.48060000000000003</v>
+        <v>0.56562999999999997</v>
       </c>
       <c r="AG5">
         <f>VLOOKUP(AG1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.22531999999999999</v>
+        <v>0.42141000000000001</v>
       </c>
       <c r="AH5">
         <f>VLOOKUP(AH1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.49987999999999999</v>
+        <v>0.43212</v>
       </c>
       <c r="AI5">
         <f>VLOOKUP(AI1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.60231999999999997</v>
+        <v>0.50055000000000005</v>
       </c>
       <c r="AJ5">
         <f>VLOOKUP(AJ1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.38614999999999999</v>
+        <v>0.50044</v>
       </c>
       <c r="AK5" t="e">
         <f>VLOOKUP(AK1,'1983'!$K:$L,2,FALSE)</f>
@@ -1472,36 +1470,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1984</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(C1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.73258000000000001</v>
+        <v>0.58557000000000003</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(D1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.51137999999999995</v>
+        <v>0.59431999999999996</v>
       </c>
       <c r="E6">
         <f>VLOOKUP(E1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.26856000000000002</v>
+        <v>0.41464000000000001</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(F1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.47278999999999999</v>
+        <v>0.40944999999999998</v>
       </c>
       <c r="G6">
         <f>VLOOKUP(G1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.60775999999999997</v>
+        <v>0.50034999999999996</v>
       </c>
       <c r="H6">
         <f>VLOOKUP(H1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.39711000000000002</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1523,15 +1521,15 @@
       </c>
       <c r="O6">
         <f>VLOOKUP(O1,'1984'!$K:$L,2,FALSE)</f>
-        <v>-72.86</v>
+        <v>-85.17</v>
       </c>
       <c r="P6">
         <f>VLOOKUP(P1,'1984'!$K:$L,2,FALSE)</f>
-        <v>7.2160000000000002</v>
+        <v>5.5910000000000002</v>
       </c>
       <c r="Q6">
         <f>VLOOKUP(Q1,'1984'!$K:$L,2,FALSE)</f>
-        <v>-65.64</v>
+        <v>-79.58</v>
       </c>
       <c r="R6">
         <f>VLOOKUP(R1,'1984'!$K:$L,2,FALSE)</f>
@@ -1587,27 +1585,27 @@
       </c>
       <c r="AE6">
         <f>VLOOKUP(AE1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.77042999999999995</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="AF6">
         <f>VLOOKUP(AF1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.51331000000000004</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="AG6">
         <f>VLOOKUP(AG1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.2296</v>
+        <v>0.39445999999999998</v>
       </c>
       <c r="AH6">
         <f>VLOOKUP(AH1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.46584999999999999</v>
+        <v>0.40566999999999998</v>
       </c>
       <c r="AI6">
         <f>VLOOKUP(AI1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.61846000000000001</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="AJ6">
         <f>VLOOKUP(AJ1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.39145999999999997</v>
+        <v>0.50112000000000001</v>
       </c>
       <c r="AK6" t="e">
         <f>VLOOKUP(AK1,'1984'!$K:$L,2,FALSE)</f>
@@ -1640,28 +1638,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1676,12 +1675,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -1691,22 +1690,22 @@
         <v>OriginalContagionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1729,32 +1728,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-85.85</v>
+        <v>-108.3</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-85.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-108.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>6.48</v>
+        <v>5.282</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1762,17 +1761,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-79.37</v>
+        <v>-103</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-79.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1780,10 +1779,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1831,10 +1830,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1903,46 +1902,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.51424999999999998</v>
+        <v>0.49192000000000002</v>
       </c>
       <c r="C18">
-        <v>0.26367200000000002</v>
+        <v>0.27595599999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>1.0759999999999999E-3</v>
+        <v>3.5629999999999999E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>7.5859999999999999E-3</v>
+        <v>4.9370000000000004E-3</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:L31" si="0">A18</f>
+        <f t="shared" ref="K18:L25" si="0">A18</f>
         <v>Tag</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.51424999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49192000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.49484</v>
+        <v>0.49959999999999999</v>
       </c>
       <c r="C19">
-        <v>0.26322699999999999</v>
+        <v>0.28878599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>1.075E-3</v>
+        <v>3.7280000000000001E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>1.136E-2</v>
+        <v>4.4480000000000002E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -1950,24 +1949,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.49484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49959999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.49186000000000002</v>
+        <v>0.52071000000000001</v>
       </c>
       <c r="C20">
-        <v>0.26394600000000001</v>
+        <v>0.27621000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>1.078E-3</v>
+        <v>3.5659999999999999E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>7.4019999999999997E-3</v>
+        <v>4.921E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -1975,24 +1974,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.49186000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.52071000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.55432999999999999</v>
+        <v>0.50226000000000004</v>
       </c>
       <c r="C21">
-        <v>0.27640399999999998</v>
+        <v>0.26667200000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>1.1280000000000001E-3</v>
+        <v>3.4430000000000002E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>5.8269999999999997E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2000,24 +1999,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.55432999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50226000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.54515999999999998</v>
+        <v>0.49995000000000001</v>
       </c>
       <c r="C22">
-        <v>0.260438</v>
+        <v>0.28840399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0629999999999999E-3</v>
+        <v>3.723E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.106E-2</v>
+        <v>3.7130000000000003E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -2025,24 +2024,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.54515999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49995000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.44938</v>
+        <v>0.49360999999999999</v>
       </c>
       <c r="C23">
-        <v>0.27531</v>
+        <v>0.26646900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>1.124E-3</v>
+        <v>3.4400000000000001E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>5.8120000000000003E-3</v>
+        <v>1.699E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -2050,69 +2049,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.44938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49360999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>1.984E-2</v>
+      </c>
+      <c r="C24">
+        <v>5.6820000000000004E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.3359999999999997E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.076E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1.984E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>1.8450000000000001E-2</v>
-      </c>
-      <c r="C24">
-        <v>6.5370000000000003E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.669E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4.269E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>4.5110000000000003E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.823E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.4449999999999996E-6</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>1.8450000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>1.8780000000000002E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.7039999999999999E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.7370000000000001E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4.5710000000000001E-5</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>1.8780000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -2121,14 +2120,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2145,24 +2144,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>4.4830000000000002E-2</v>
+        <v>2.9905999999999999E-2</v>
       </c>
       <c r="C30">
-        <v>0.30247000000000002</v>
+        <v>0.25467000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.51856000000000002</v>
+        <v>0.49619999999999997</v>
       </c>
       <c r="E30" s="1">
-        <v>0.73026000000000002</v>
+        <v>0.72774000000000005</v>
       </c>
       <c r="F30">
-        <v>0.96364000000000005</v>
+        <v>0.95016</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -2170,27 +2169,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.51856000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49619999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>3.7519999999999998E-2</v>
+        <v>2.4854000000000001E-2</v>
       </c>
       <c r="C31">
-        <v>0.2757</v>
+        <v>0.24939</v>
       </c>
       <c r="D31" s="1">
-        <v>0.502</v>
+        <v>0.49978</v>
       </c>
       <c r="E31" s="1">
-        <v>0.71142000000000005</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="F31">
-        <v>0.94432000000000005</v>
+        <v>0.97467999999999999</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -2198,27 +2197,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>3.6130000000000002E-2</v>
+        <v>5.0486999999999997E-2</v>
       </c>
       <c r="C32">
-        <v>0.27675</v>
+        <v>0.28476000000000001</v>
       </c>
       <c r="D32">
-        <v>0.49135000000000001</v>
+        <v>0.52564</v>
       </c>
       <c r="E32">
-        <v>0.70782999999999996</v>
+        <v>0.75876999999999994</v>
       </c>
       <c r="F32">
-        <v>0.95448</v>
+        <v>0.97096000000000005</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -2226,27 +2225,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.49135000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.52564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>4.1230000000000003E-2</v>
+        <v>3.9766999999999997E-2</v>
       </c>
       <c r="C33">
-        <v>0.33328000000000002</v>
+        <v>0.28299000000000002</v>
       </c>
       <c r="D33">
-        <v>0.57737000000000005</v>
+        <v>0.50188999999999995</v>
       </c>
       <c r="E33">
-        <v>0.79073000000000004</v>
+        <v>0.72265999999999997</v>
       </c>
       <c r="F33">
-        <v>0.97943999999999998</v>
+        <v>0.96175999999999995</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -2254,27 +2253,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.57737000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50188999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>6.8129999999999996E-2</v>
+        <v>2.5033E-2</v>
       </c>
       <c r="C34">
-        <v>0.33377000000000001</v>
+        <v>0.25026999999999999</v>
       </c>
       <c r="D34">
-        <v>0.55927000000000004</v>
+        <v>0.50044</v>
       </c>
       <c r="E34">
-        <v>0.76293</v>
+        <v>0.74917999999999996</v>
       </c>
       <c r="F34">
-        <v>0.96982000000000002</v>
+        <v>0.97489000000000003</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -2282,27 +2281,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.55927000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>2.129E-2</v>
+        <v>3.7277999999999999E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.21210000000000001</v>
+        <v>0.27340999999999999</v>
       </c>
       <c r="D35" s="4">
-        <v>0.43080000000000002</v>
+        <v>0.49179</v>
       </c>
       <c r="E35" s="4">
-        <v>0.67323999999999995</v>
+        <v>0.71331999999999995</v>
       </c>
       <c r="F35" s="3">
-        <v>0.95662000000000003</v>
+        <v>0.95845000000000002</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -2310,91 +2309,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.43080000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>1.034E-2</v>
+        <v>1.2197E-2</v>
       </c>
       <c r="C36">
-        <v>1.406E-2</v>
+        <v>1.593E-2</v>
       </c>
       <c r="D36">
-        <v>1.703E-2</v>
+        <v>1.874E-2</v>
       </c>
       <c r="E36">
-        <v>2.12E-2</v>
+        <v>2.247E-2</v>
       </c>
       <c r="F36">
-        <v>3.499E-2</v>
+        <v>3.3930000000000002E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>1.703E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.874E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>1.0449999999999999E-2</v>
+        <v>9.5359999999999993E-3</v>
       </c>
       <c r="C37">
-        <v>1.427E-2</v>
+        <v>1.2489999999999999E-2</v>
       </c>
       <c r="D37">
-        <v>1.7319999999999999E-2</v>
+        <v>1.473E-2</v>
       </c>
       <c r="E37">
-        <v>2.1610000000000001E-2</v>
+        <v>1.7690000000000001E-2</v>
       </c>
       <c r="F37">
-        <v>3.5819999999999998E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.7319999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.473E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -2405,7 +2404,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2424,15 +2423,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -2440,10 +2439,10 @@
       </c>
       <c r="L43">
         <f t="shared" ref="L43:L49" si="6">B43</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -2462,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2481,15 +2480,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -2497,10 +2496,10 @@
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2519,9 +2518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2531,16 +2530,16 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2550,34 +2549,34 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -2596,37 +2595,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>3117.8180000000002</v>
+      </c>
+      <c r="C55">
+        <v>421569.78399999999</v>
+      </c>
+      <c r="D55">
+        <v>3144.3110000000001</v>
+      </c>
+      <c r="E55">
+        <v>24638.991000000002</v>
+      </c>
+      <c r="F55">
+        <v>603254.25</v>
+      </c>
+      <c r="G55">
+        <v>24633.036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1208.9124999999999</v>
-      </c>
-      <c r="C55">
-        <v>534.28750000000002</v>
-      </c>
-      <c r="D55">
-        <v>1271.0556999999999</v>
-      </c>
-      <c r="E55">
-        <v>2247.4036999999998</v>
-      </c>
-      <c r="F55">
-        <v>553.78510000000006</v>
-      </c>
-      <c r="G55">
-        <v>2253.0254</v>
-      </c>
-      <c r="H55">
-        <v>23571.8534</v>
-      </c>
-      <c r="I55">
-        <v>22545.576499999999</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>278866.299</v>
+      </c>
+      <c r="B57">
+        <v>285533.7</v>
       </c>
     </row>
   </sheetData>
@@ -2635,29 +2638,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2672,12 +2676,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -2687,23 +2691,23 @@
         <v>OriginalContagionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2726,32 +2730,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-89.43</v>
+        <v>-102.6</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-89.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-102.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>7.1849999999999996</v>
+        <v>5.6529999999999996</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>7.1849999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.6529999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2759,17 +2763,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-82.25</v>
+        <v>-96.97</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-82.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-96.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2777,10 +2781,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2828,10 +2832,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -2900,46 +2904,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.50463999999999998</v>
+        <v>0.46869</v>
       </c>
       <c r="C18">
-        <v>0.26802500000000001</v>
+        <v>0.26905000000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>1.0939999999999999E-3</v>
+        <v>3.4729999999999999E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>9.8499999999999994E-3</v>
+        <v>4.594E-3</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:L31" si="0">A18</f>
+        <f t="shared" ref="K18:L25" si="0">A18</f>
         <v>Tag</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.50463999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.46869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.41707</v>
+        <v>0.50021000000000004</v>
       </c>
       <c r="C19">
-        <v>0.25067099999999998</v>
+        <v>0.28884199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>1.023E-3</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>1.0710000000000001E-2</v>
+        <v>4.4270000000000003E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -2947,24 +2951,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.41707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50021000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.46356000000000003</v>
+        <v>0.53463000000000005</v>
       </c>
       <c r="C20">
-        <v>0.26550099999999999</v>
+        <v>0.26914100000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0839999999999999E-3</v>
+        <v>3.4749999999999999E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>9.2960000000000004E-3</v>
+        <v>4.6049999999999997E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -2972,24 +2976,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.46356000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.53463000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.60153000000000001</v>
+        <v>0.48369000000000001</v>
       </c>
       <c r="C21">
-        <v>0.25790600000000002</v>
+        <v>0.26672000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0529999999999999E-3</v>
+        <v>3.4430000000000002E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>6.9950000000000003E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2997,24 +3001,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.60153000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48369000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.54508999999999996</v>
+        <v>0.50031999999999999</v>
       </c>
       <c r="C22">
-        <v>0.25633099999999998</v>
+        <v>0.28852499999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0460000000000001E-3</v>
+        <v>3.725E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.098E-2</v>
+        <v>3.725E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -3022,24 +3026,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.54508999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50031999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.40514</v>
+        <v>0.51544000000000001</v>
       </c>
       <c r="C23">
-        <v>0.25804500000000002</v>
+        <v>0.26655699999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>1.0529999999999999E-3</v>
+        <v>3.4410000000000002E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>6.9680000000000002E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -3047,69 +3051,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.40514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.51544000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>2.3279999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8.9080000000000001E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.4919999999999999E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.3279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>1.652E-2</v>
-      </c>
-      <c r="C24">
-        <v>6.1960000000000001E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.5299999999999998E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5.5170000000000002E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>1.7690000000000001E-2</v>
+      </c>
+      <c r="C25">
+        <v>5.2290000000000001E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.7499999999999997E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>1.652E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>1.6760000000000001E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.058E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.4729999999999999E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4.1090000000000001E-5</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>1.6760000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.7690000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -3118,14 +3122,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3142,24 +3146,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>3.9475999999999997E-2</v>
+        <v>2.537E-2</v>
       </c>
       <c r="C30">
-        <v>0.28537000000000001</v>
+        <v>0.23651</v>
       </c>
       <c r="D30" s="1">
-        <v>0.50327999999999995</v>
+        <v>0.46767999999999998</v>
       </c>
       <c r="E30" s="1">
-        <v>0.72736999999999996</v>
+        <v>0.69908000000000003</v>
       </c>
       <c r="F30">
-        <v>0.96426999999999996</v>
+        <v>0.92488999999999999</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -3167,27 +3171,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.50327999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.46767999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2.3397999999999999E-2</v>
+        <v>2.4740000000000002E-2</v>
       </c>
       <c r="C31">
-        <v>0.20558999999999999</v>
+        <v>0.24997</v>
       </c>
       <c r="D31" s="1">
-        <v>0.40218999999999999</v>
+        <v>0.50063000000000002</v>
       </c>
       <c r="E31" s="1">
-        <v>0.61553000000000002</v>
+        <v>0.75034000000000001</v>
       </c>
       <c r="F31">
-        <v>0.89641999999999999</v>
+        <v>0.97502999999999995</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -3195,27 +3199,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>0.40218999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50063000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>2.8105999999999999E-2</v>
+        <v>7.4190000000000006E-2</v>
       </c>
       <c r="C32">
-        <v>0.23966000000000001</v>
+        <v>0.30568000000000001</v>
       </c>
       <c r="D32">
-        <v>0.45551999999999998</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="E32">
-        <v>0.67952000000000001</v>
+        <v>0.76853000000000005</v>
       </c>
       <c r="F32">
-        <v>0.94550000000000001</v>
+        <v>0.97462000000000004</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -3223,27 +3227,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.45551999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.53639999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>7.5478000000000003E-2</v>
+        <v>3.3509999999999998E-2</v>
       </c>
       <c r="C33">
-        <v>0.41095999999999999</v>
+        <v>0.26061000000000001</v>
       </c>
       <c r="D33">
-        <v>0.63188</v>
+        <v>0.48122999999999999</v>
       </c>
       <c r="E33">
-        <v>0.81955</v>
+        <v>0.70233000000000001</v>
       </c>
       <c r="F33">
-        <v>0.98168999999999995</v>
+        <v>0.95389000000000002</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -3251,27 +3255,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.63188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48122999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>8.5389999999999994E-2</v>
+        <v>2.5219999999999999E-2</v>
       </c>
       <c r="C34">
-        <v>0.33955000000000002</v>
+        <v>0.25073000000000001</v>
       </c>
       <c r="D34">
-        <v>0.54083999999999999</v>
+        <v>0.50019999999999998</v>
       </c>
       <c r="E34">
-        <v>0.76132999999999995</v>
+        <v>0.75033000000000005</v>
       </c>
       <c r="F34">
-        <v>0.97448000000000001</v>
+        <v>0.97496000000000005</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -3279,27 +3283,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.54083999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50019999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>1.8602E-2</v>
+        <v>4.6019999999999998E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.18948999999999999</v>
+        <v>0.29626999999999998</v>
       </c>
       <c r="D35" s="4">
-        <v>0.37719000000000003</v>
+        <v>0.51829000000000003</v>
       </c>
       <c r="E35" s="4">
-        <v>0.59853999999999996</v>
+        <v>0.73807</v>
       </c>
       <c r="F35" s="3">
-        <v>0.92747000000000002</v>
+        <v>0.96575</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -3307,91 +3311,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.37719000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.51829000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>8.8749999999999992E-3</v>
+        <v>1.414E-2</v>
       </c>
       <c r="C36">
-        <v>1.2370000000000001E-2</v>
+        <v>1.8550000000000001E-2</v>
       </c>
       <c r="D36">
-        <v>1.5169999999999999E-2</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>1.9050000000000001E-2</v>
+        <v>2.6429999999999999E-2</v>
       </c>
       <c r="F36">
-        <v>3.2190000000000003E-2</v>
+        <v>4.0550000000000003E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>1.5169999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>9.3449999999999991E-3</v>
+        <v>1.0659999999999999E-2</v>
       </c>
       <c r="C37">
-        <v>1.2749999999999999E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D37">
-        <v>1.5440000000000001E-2</v>
+        <v>1.669E-2</v>
       </c>
       <c r="E37">
-        <v>1.9230000000000001E-2</v>
+        <v>2.0119999999999999E-2</v>
       </c>
       <c r="F37">
-        <v>3.1919999999999997E-2</v>
+        <v>3.065E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.5440000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.669E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -3402,7 +3406,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -3421,15 +3425,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -3437,10 +3441,10 @@
       </c>
       <c r="L43">
         <f t="shared" ref="L43:L49" si="6">B43</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -3459,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3478,15 +3482,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -3494,10 +3498,10 @@
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -3516,9 +3520,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3528,16 +3532,16 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3547,34 +3551,34 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -3593,37 +3597,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>3427.9470000000001</v>
+      </c>
+      <c r="C55">
+        <v>425763.658</v>
+      </c>
+      <c r="D55">
+        <v>3411.47</v>
+      </c>
+      <c r="E55">
+        <v>20136.95</v>
+      </c>
+      <c r="F55">
+        <v>600000</v>
+      </c>
+      <c r="G55">
+        <v>20323.432000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>738.38520000000005</v>
-      </c>
-      <c r="C55">
-        <v>550.30970000000002</v>
-      </c>
-      <c r="D55">
-        <v>818.04480000000001</v>
-      </c>
-      <c r="E55">
-        <v>1360.6491000000001</v>
-      </c>
-      <c r="F55">
-        <v>555.44140000000004</v>
-      </c>
-      <c r="G55">
-        <v>1371.6004</v>
-      </c>
-      <c r="H55">
-        <v>12709.5527</v>
-      </c>
-      <c r="I55">
-        <v>22100.616699999999</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>214030.11600000001</v>
+      </c>
+      <c r="B57">
+        <v>263002.02100000001</v>
       </c>
     </row>
   </sheetData>
@@ -3632,30 +3640,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="K52" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3670,12 +3678,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -3685,23 +3693,23 @@
         <v>OriginalContagionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3716,7 +3724,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3724,32 +3732,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-75.319999999999993</v>
+        <v>-91.96</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-75.319999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-91.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>6.8920000000000003</v>
+        <v>5.2530000000000001</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>6.8920000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.2530000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3757,17 +3765,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-68.430000000000007</v>
+        <v>-86.71</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-68.430000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-86.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3775,10 +3783,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3792,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3809,7 +3817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3826,10 +3834,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3858,7 +3866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -3878,7 +3886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3898,46 +3906,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.53383000000000003</v>
+        <v>0.43923000000000001</v>
       </c>
       <c r="C18">
-        <v>0.26227699999999998</v>
+        <v>0.25643300000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>1.0709999999999999E-3</v>
+        <v>3.3110000000000002E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>5.071E-3</v>
+        <v>3.241E-3</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:L31" si="0">A18</f>
+        <f t="shared" ref="K18:L25" si="0">A18</f>
         <v>Tag</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.53383000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.43923000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.41733999999999999</v>
+        <v>0.49998999999999999</v>
       </c>
       <c r="C19">
-        <v>0.24895900000000001</v>
+        <v>0.28839300000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>1.016E-3</v>
+        <v>3.723E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>8.3750000000000005E-3</v>
+        <v>4.4339999999999999E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -3945,24 +3953,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.41733999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49998999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.47632000000000002</v>
+        <v>0.55820999999999998</v>
       </c>
       <c r="C20">
-        <v>0.26409700000000003</v>
+        <v>0.25649</v>
       </c>
       <c r="D20" s="1">
-        <v>1.078E-3</v>
+        <v>3.3110000000000002E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>5.0930000000000003E-3</v>
+        <v>3.2490000000000002E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -3970,24 +3978,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.47632000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.55820999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.63668999999999998</v>
+        <v>0.48569000000000001</v>
       </c>
       <c r="C21">
-        <v>0.25301499999999999</v>
+        <v>0.26497799999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0330000000000001E-3</v>
+        <v>3.4210000000000002E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>4.4660000000000004E-3</v>
+        <v>1.0610000000000001E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -3995,24 +4003,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.63668999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48569000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.58311999999999997</v>
+        <v>0.50026999999999999</v>
       </c>
       <c r="C22">
-        <v>0.25028899999999998</v>
+        <v>0.28835</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0219999999999999E-3</v>
+        <v>3.723E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>8.5039999999999994E-3</v>
+        <v>3.7179999999999998E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -4020,24 +4028,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.58311999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50026999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.35893999999999998</v>
+        <v>0.51502000000000003</v>
       </c>
       <c r="C23">
-        <v>0.25266899999999998</v>
+        <v>0.26474500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>1.0319999999999999E-3</v>
+        <v>3.4180000000000001E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>4.5180000000000003E-3</v>
+        <v>1.062E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -4045,69 +4053,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.35893999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.51502000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>2.3970000000000002E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.9490000000000003E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8.9709999999999993E-6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.329E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.3970000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>3.2809999999999999E-2</v>
-      </c>
-      <c r="C24">
-        <v>1.1710999999999999E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4.7809999999999998E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8.0350000000000001E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>2.9239999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>8.3850000000000001E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.083E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.5460000000000001E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>3.2809999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>2.0480000000000002E-2</v>
-      </c>
-      <c r="C25">
-        <v>7.587E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3.0970000000000003E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5.3399999999999997E-5</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.0480000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.9239999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -4116,14 +4124,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -4140,24 +4148,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>5.534E-2</v>
+        <v>2.2349999999999998E-2</v>
       </c>
       <c r="C30">
-        <v>0.32306000000000001</v>
+        <v>0.21822</v>
       </c>
       <c r="D30" s="1">
-        <v>0.54117999999999999</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="E30" s="1">
-        <v>0.75248000000000004</v>
+        <v>0.65622000000000003</v>
       </c>
       <c r="F30">
-        <v>0.96926000000000001</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -4165,27 +4173,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.54117999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.43590000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2.0299999999999999E-2</v>
+        <v>2.5159999999999998E-2</v>
       </c>
       <c r="C31">
-        <v>0.20574000000000001</v>
+        <v>0.25041000000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>0.41048000000000001</v>
+        <v>0.50033000000000005</v>
       </c>
       <c r="E31" s="1">
-        <v>0.61263999999999996</v>
+        <v>0.74951000000000001</v>
       </c>
       <c r="F31">
-        <v>0.88722999999999996</v>
+        <v>0.97485999999999995</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -4193,27 +4201,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>0.41048000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50033000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>3.0110000000000001E-2</v>
+        <v>0.1177</v>
       </c>
       <c r="C32">
-        <v>0.25767000000000001</v>
+        <v>0.34138000000000002</v>
       </c>
       <c r="D32">
-        <v>0.47464000000000001</v>
+        <v>0.55944000000000005</v>
       </c>
       <c r="E32">
-        <v>0.68889999999999996</v>
+        <v>0.77925999999999995</v>
       </c>
       <c r="F32">
-        <v>0.94950000000000001</v>
+        <v>0.97765999999999997</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -4221,27 +4229,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.47464000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.55944000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>8.9899999999999994E-2</v>
+        <v>3.4509999999999999E-2</v>
       </c>
       <c r="C33">
-        <v>0.45862000000000003</v>
+        <v>0.26773000000000002</v>
       </c>
       <c r="D33">
-        <v>0.67879999999999996</v>
+        <v>0.48238999999999999</v>
       </c>
       <c r="E33">
-        <v>0.85053000000000001</v>
+        <v>0.70025999999999999</v>
       </c>
       <c r="F33">
-        <v>0.98551</v>
+        <v>0.95645000000000002</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -4249,27 +4257,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.67879999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.48238999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>0.11275</v>
+        <v>2.513E-2</v>
       </c>
       <c r="C34">
-        <v>0.38325999999999999</v>
+        <v>0.25087999999999999</v>
       </c>
       <c r="D34">
-        <v>0.59180999999999995</v>
+        <v>0.50046999999999997</v>
       </c>
       <c r="E34">
-        <v>0.79652000000000001</v>
+        <v>0.74999000000000005</v>
       </c>
       <c r="F34">
-        <v>0.97907999999999995</v>
+        <v>0.97462000000000004</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -4277,27 +4285,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.59180999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50046999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>1.383E-2</v>
+        <v>4.3740000000000001E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.1469</v>
+        <v>0.30113000000000001</v>
       </c>
       <c r="D35" s="4">
-        <v>0.31635000000000002</v>
+        <v>0.51846999999999999</v>
       </c>
       <c r="E35" s="4">
-        <v>0.53266999999999998</v>
+        <v>0.73272999999999999</v>
       </c>
       <c r="F35" s="3">
-        <v>0.91164000000000001</v>
+        <v>0.96528999999999998</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -4305,91 +4313,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.31635000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.51846999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>1.8239999999999999E-2</v>
+        <v>1.464E-2</v>
       </c>
       <c r="C36">
-        <v>2.495E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="D36">
-        <v>3.022E-2</v>
+        <v>2.2630000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>3.7719999999999997E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
       <c r="F36">
-        <v>6.2350000000000003E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>3.022E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.2630000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>1.128E-2</v>
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="C37">
-        <v>1.545E-2</v>
+        <v>2.3460000000000002E-2</v>
       </c>
       <c r="D37">
-        <v>1.8800000000000001E-2</v>
+        <v>2.7640000000000001E-2</v>
       </c>
       <c r="E37">
-        <v>2.3449999999999999E-2</v>
+        <v>3.3160000000000002E-2</v>
       </c>
       <c r="F37">
-        <v>3.9690000000000003E-2</v>
+        <v>4.9930000000000002E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.8800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.7640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -4400,7 +4408,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4419,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -4476,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -4495,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4514,9 +4522,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4526,16 +4534,16 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4545,19 +4553,19 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -4567,12 +4575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -4591,37 +4599,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>6269.5529999999999</v>
+      </c>
+      <c r="C55">
+        <v>423221.29300000001</v>
+      </c>
+      <c r="D55">
+        <v>6243.7820000000002</v>
+      </c>
+      <c r="E55">
+        <v>62420.243000000002</v>
+      </c>
+      <c r="F55">
+        <v>601496.54200000002</v>
+      </c>
+      <c r="G55">
+        <v>62162.072999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>2682.5652</v>
-      </c>
-      <c r="C55">
-        <v>889.2056</v>
-      </c>
-      <c r="D55">
-        <v>2712.2815999999998</v>
-      </c>
-      <c r="E55">
-        <v>3212.8528999999999</v>
-      </c>
-      <c r="F55">
-        <v>867.93520000000001</v>
-      </c>
-      <c r="G55">
-        <v>3131.0880999999999</v>
-      </c>
-      <c r="H55">
-        <v>21637.990900000001</v>
-      </c>
-      <c r="I55">
-        <v>20557.823</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>273707.55599999998</v>
+      </c>
+      <c r="B57">
+        <v>294418.989</v>
       </c>
     </row>
   </sheetData>
@@ -4630,28 +4642,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="K67" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4666,12 +4680,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -4681,23 +4695,23 @@
         <v>OriginalContagionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4712,7 +4726,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4720,32 +4734,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-75.349999999999994</v>
+        <v>-91.7</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-75.349999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-91.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>6.8819999999999997</v>
+        <v>5.4580000000000002</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>6.8819999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.4580000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4753,17 +4767,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-68.47</v>
+        <v>-86.24</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-68.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-86.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4771,10 +4785,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4788,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4805,7 +4819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4822,10 +4836,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4854,7 +4868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -4874,7 +4888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -4894,46 +4908,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.50226000000000004</v>
+        <v>0.43576999999999999</v>
       </c>
       <c r="C18">
-        <v>0.26910800000000001</v>
+        <v>0.25507800000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>1.0989999999999999E-3</v>
+        <v>3.2929999999999998E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>7.0629999999999998E-3</v>
+        <v>3.1220000000000002E-3</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:L31" si="0">A18</f>
+        <f t="shared" ref="K18:L25" si="0">A18</f>
         <v>Tag</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.50226000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.43576999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.39767000000000002</v>
+        <v>0.50012000000000001</v>
       </c>
       <c r="C19">
-        <v>0.24024400000000001</v>
+        <v>0.28836299999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>9.8079999999999999E-4</v>
+        <v>3.723E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>6.0730000000000003E-3</v>
+        <v>4.3990000000000001E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -4941,24 +4955,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.39767000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50012000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.48221000000000003</v>
+        <v>0.56283000000000005</v>
       </c>
       <c r="C20">
-        <v>0.26763399999999998</v>
+        <v>0.25491599999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>1.093E-3</v>
+        <v>3.2909999999999998E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>7.0340000000000003E-3</v>
+        <v>3.1120000000000002E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -4966,24 +4980,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.48221000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.56283000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.71543000000000001</v>
+        <v>0.56671000000000005</v>
       </c>
       <c r="C21">
-        <v>0.21996499999999999</v>
+        <v>0.25720900000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>8.9800000000000004E-4</v>
+        <v>3.321E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>3.5500000000000002E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -4991,24 +5005,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.71543000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.56671000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.59341999999999995</v>
+        <v>0.50041999999999998</v>
       </c>
       <c r="C22">
-        <v>0.24079800000000001</v>
+        <v>0.28884799999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>9.8309999999999999E-4</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>6.0689999999999997E-3</v>
+        <v>3.7320000000000002E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -5016,24 +5030,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.59341999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50041999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.27745999999999998</v>
+        <v>0.43506</v>
       </c>
       <c r="C23">
-        <v>0.21854100000000001</v>
+        <v>0.25732300000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>8.922E-4</v>
+        <v>3.322E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>3.6180000000000001E-3</v>
+        <v>1.142E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -5041,69 +5055,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.27745999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.43506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>2.716E-2</v>
+      </c>
+      <c r="C24">
+        <v>7.9970000000000006E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.0319999999999999E-5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.6169999999999999E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.716E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>2.4160000000000001E-2</v>
-      </c>
-      <c r="C24">
-        <v>8.7980000000000003E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.5920000000000002E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6.5129999999999995E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="C25">
+        <v>7.6509999999999998E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9.8779999999999993E-6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.466E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>2.4160000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>2.792E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.0272999999999999E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.1940000000000002E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7.5290000000000006E-5</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.792E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -5112,14 +5126,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5136,24 +5150,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>4.2470000000000001E-2</v>
+        <v>2.2159999999999999E-2</v>
       </c>
       <c r="C30">
-        <v>0.27855999999999997</v>
+        <v>0.21537999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>0.49987999999999999</v>
+        <v>0.43212</v>
       </c>
       <c r="E30" s="1">
-        <v>0.72772000000000003</v>
+        <v>0.65</v>
       </c>
       <c r="F30">
-        <v>0.96519999999999995</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -5161,27 +5175,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.49987999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.43212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>1.9939999999999999E-2</v>
+        <v>2.5340000000000001E-2</v>
       </c>
       <c r="C31">
-        <v>0.19416</v>
+        <v>0.25063999999999997</v>
       </c>
       <c r="D31" s="1">
-        <v>0.38614999999999999</v>
+        <v>0.50044</v>
       </c>
       <c r="E31" s="1">
-        <v>0.58303000000000005</v>
+        <v>0.74965999999999999</v>
       </c>
       <c r="F31">
-        <v>0.86370000000000002</v>
+        <v>0.97516999999999998</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -5189,27 +5203,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>0.38614999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>3.1280000000000002E-2</v>
+        <v>0.11881</v>
       </c>
       <c r="C32">
-        <v>0.25772</v>
+        <v>0.34850999999999999</v>
       </c>
       <c r="D32">
-        <v>0.48060000000000003</v>
+        <v>0.56562999999999997</v>
       </c>
       <c r="E32">
-        <v>0.7036</v>
+        <v>0.78232000000000002</v>
       </c>
       <c r="F32">
-        <v>0.95330000000000004</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -5217,27 +5231,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.48060000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.56562999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>0.18831000000000001</v>
+        <v>7.2529999999999997E-2</v>
       </c>
       <c r="C33">
-        <v>0.58128999999999997</v>
+        <v>0.36715999999999999</v>
       </c>
       <c r="D33">
-        <v>0.76414000000000004</v>
+        <v>0.58176000000000005</v>
       </c>
       <c r="E33">
-        <v>0.89534000000000002</v>
+        <v>0.78202000000000005</v>
       </c>
       <c r="F33">
-        <v>0.98975000000000002</v>
+        <v>0.97579000000000005</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -5245,27 +5259,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.76414000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.58176000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>0.13039000000000001</v>
+        <v>2.5020000000000001E-2</v>
       </c>
       <c r="C34">
-        <v>0.40706999999999999</v>
+        <v>0.24986</v>
       </c>
       <c r="D34">
-        <v>0.60231999999999997</v>
+        <v>0.50055000000000005</v>
       </c>
       <c r="E34">
-        <v>0.79481999999999997</v>
+        <v>0.75102000000000002</v>
       </c>
       <c r="F34">
-        <v>0.97923000000000004</v>
+        <v>0.97511999999999999</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -5273,27 +5287,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.60231999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50055000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>1.018E-2</v>
+        <v>2.4680000000000001E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.10194</v>
+        <v>0.21992</v>
       </c>
       <c r="D35" s="4">
-        <v>0.22531999999999999</v>
+        <v>0.42141000000000001</v>
       </c>
       <c r="E35" s="4">
-        <v>0.40477000000000002</v>
+        <v>0.63444</v>
       </c>
       <c r="F35" s="3">
-        <v>0.81294</v>
+        <v>0.92796000000000001</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -5301,91 +5315,91 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.22531999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.42141000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>1.3169999999999999E-2</v>
+        <v>1.652E-2</v>
       </c>
       <c r="C36">
-        <v>1.822E-2</v>
+        <v>2.1680000000000001E-2</v>
       </c>
       <c r="D36">
-        <v>2.2239999999999999E-2</v>
+        <v>2.5590000000000002E-2</v>
       </c>
       <c r="E36">
-        <v>2.785E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>4.6100000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>2.2239999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.5590000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>1.5429999999999999E-2</v>
+        <v>1.585E-2</v>
       </c>
       <c r="C37">
-        <v>2.1090000000000001E-2</v>
+        <v>2.0930000000000001E-2</v>
       </c>
       <c r="D37">
-        <v>2.562E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="E37">
-        <v>3.211E-2</v>
+        <v>2.9770000000000001E-2</v>
       </c>
       <c r="F37">
-        <v>5.3940000000000002E-2</v>
+        <v>4.5060000000000003E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>2.562E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.4729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -5396,7 +5410,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -5404,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -5415,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -5434,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -5453,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -5461,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -5472,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -5480,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -5491,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5510,9 +5524,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5522,16 +5536,16 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5541,19 +5555,19 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -5563,12 +5577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -5587,37 +5601,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>6670.442</v>
+      </c>
+      <c r="C55">
+        <v>429899.15299999999</v>
+      </c>
+      <c r="D55">
+        <v>6702.7969999999996</v>
+      </c>
+      <c r="E55">
+        <v>49766.377</v>
+      </c>
+      <c r="F55">
+        <v>599111.50899999996</v>
+      </c>
+      <c r="G55">
+        <v>50844.489000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1449.2159999999999</v>
-      </c>
-      <c r="C55">
-        <v>1579.9110000000001</v>
-      </c>
-      <c r="D55">
-        <v>1447.626</v>
-      </c>
-      <c r="E55">
-        <v>3868.1529999999998</v>
-      </c>
-      <c r="F55">
-        <v>1578.5640000000001</v>
-      </c>
-      <c r="G55">
-        <v>3655.7049999999999</v>
-      </c>
-      <c r="H55">
-        <v>18485.695</v>
-      </c>
-      <c r="I55">
-        <v>19436.035</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>245032.54800000001</v>
+      </c>
+      <c r="B57">
+        <v>272365.68</v>
       </c>
     </row>
   </sheetData>
@@ -5626,27 +5644,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5661,12 +5680,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -5676,22 +5695,22 @@
         <v>OriginalContagionGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5706,7 +5725,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5714,32 +5733,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-72.86</v>
+        <v>-85.17</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-72.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-85.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>7.2160000000000002</v>
+        <v>5.5910000000000002</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>7.2160000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.5910000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -5747,17 +5766,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-65.64</v>
+        <v>-79.58</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-65.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-79.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5765,10 +5784,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5782,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -5799,7 +5818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5816,10 +5835,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5848,7 +5867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -5868,7 +5887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -5888,46 +5907,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.47278999999999999</v>
+        <v>0.40944999999999998</v>
       </c>
       <c r="C18">
-        <v>0.26473000000000002</v>
+        <v>0.24053099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>1.0809999999999999E-3</v>
+        <v>3.1050000000000001E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>6.0790000000000002E-3</v>
+        <v>2.3340000000000001E-3</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:L31" si="0">A18</f>
+        <f t="shared" ref="K18:L25" si="0">A18</f>
         <v>Tag</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.47278999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.40944999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.39711000000000002</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="C19">
-        <v>0.23433000000000001</v>
+        <v>0.28888000000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>9.567E-4</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="E19" s="1">
-        <v>5.5960000000000003E-3</v>
+        <v>4.4270000000000003E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -5935,24 +5954,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.39711000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50070000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.51137999999999995</v>
+        <v>0.59431999999999996</v>
       </c>
       <c r="C20">
-        <v>0.26633000000000001</v>
+        <v>0.24018600000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0870000000000001E-3</v>
+        <v>3.101E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>6.0340000000000003E-3</v>
+        <v>2.336E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -5960,24 +5979,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.51137999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.59431999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.73258000000000001</v>
+        <v>0.58557000000000003</v>
       </c>
       <c r="C21">
-        <v>0.19764000000000001</v>
+        <v>0.25399899999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>8.0690000000000004E-4</v>
+        <v>3.279E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>2.908E-3</v>
+        <v>1.0139999999999999E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -5985,24 +6004,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.73258000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.58557000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.60775999999999997</v>
+        <v>0.50034999999999996</v>
       </c>
       <c r="C22">
-        <v>0.23616000000000001</v>
+        <v>0.28844999999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>9.6409999999999996E-4</v>
+        <v>3.724E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>5.7499999999999999E-3</v>
+        <v>3.7189999999999999E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -6010,24 +6029,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.60775999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50034999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.26856000000000002</v>
+        <v>0.41464000000000001</v>
       </c>
       <c r="C23">
-        <v>0.19957</v>
+        <v>0.25398300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>8.1470000000000002E-4</v>
+        <v>3.279E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>2.9640000000000001E-3</v>
+        <v>1.011E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -6035,69 +6054,69 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.26856000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.41464000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>3.2070000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>9.587E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.238E-5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.033E-5</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>sigmaA</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>3.2070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="C24">
-        <v>1.0410000000000001E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4.2519999999999999E-5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7.7529999999999998E-5</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="B25">
+        <v>3.0839999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>9.0959999999999999E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.1739999999999999E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.7929999999999999E-5</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>sigmaG</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>2.8299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>2.7720000000000002E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.017E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.1529999999999997E-5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7.2739999999999998E-5</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>sigmaI</v>
-      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.7720000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.0839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -6106,14 +6125,14 @@
         <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -6130,24 +6149,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>3.3259999999999998E-2</v>
+        <v>2.0719999999999999E-2</v>
       </c>
       <c r="C30">
-        <v>0.25091000000000002</v>
+        <v>0.20355000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>0.46584999999999999</v>
+        <v>0.40566999999999998</v>
       </c>
       <c r="E30" s="1">
-        <v>0.68654999999999999</v>
+        <v>0.60638000000000003</v>
       </c>
       <c r="F30">
-        <v>0.95001000000000002</v>
+        <v>0.84170999999999996</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -6155,27 +6174,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.46584999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.40566999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2.1219999999999999E-2</v>
+        <v>2.4910000000000002E-2</v>
       </c>
       <c r="C31">
-        <v>0.19811000000000001</v>
+        <v>0.25014999999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>0.39145999999999997</v>
+        <v>0.50112000000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>0.58103000000000005</v>
+        <v>0.75156999999999996</v>
       </c>
       <c r="F31">
-        <v>0.83989999999999998</v>
+        <v>0.97521000000000002</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -6183,27 +6202,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>0.39145999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50112000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>4.233E-2</v>
+        <v>0.16003000000000001</v>
       </c>
       <c r="C32">
-        <v>0.29405999999999999</v>
+        <v>0.39739999999999998</v>
       </c>
       <c r="D32">
-        <v>0.51331000000000004</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="E32">
-        <v>0.73346999999999996</v>
+        <v>0.79979</v>
       </c>
       <c r="F32">
-        <v>0.96487999999999996</v>
+        <v>0.97990999999999995</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -6211,27 +6230,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.51331000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.60060000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>0.26229999999999998</v>
+        <v>8.022E-2</v>
       </c>
       <c r="C33">
-        <v>0.61275000000000002</v>
+        <v>0.39390999999999998</v>
       </c>
       <c r="D33">
-        <v>0.77042999999999995</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="E33">
-        <v>0.89171</v>
+        <v>0.79790000000000005</v>
       </c>
       <c r="F33">
-        <v>0.98924999999999996</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -6239,27 +6258,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.77042999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.60560000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1">
-        <v>0.15815000000000001</v>
+        <v>2.512E-2</v>
       </c>
       <c r="C34">
-        <v>0.42066999999999999</v>
+        <v>0.25087999999999999</v>
       </c>
       <c r="D34">
-        <v>0.61846000000000001</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="E34">
-        <v>0.80842999999999998</v>
+        <v>0.75014000000000003</v>
       </c>
       <c r="F34">
-        <v>0.98043000000000002</v>
+        <v>0.97509000000000001</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -6267,27 +6286,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.61846000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50060000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>1.043E-2</v>
+        <v>2.1530000000000001E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.10765</v>
+        <v>0.2019</v>
       </c>
       <c r="D35" s="4">
-        <v>0.2296</v>
+        <v>0.39445999999999998</v>
       </c>
       <c r="E35" s="4">
-        <v>0.38852999999999999</v>
+        <v>0.60680999999999996</v>
       </c>
       <c r="F35" s="3">
-        <v>0.74997999999999998</v>
+        <v>0.91952999999999996</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -6295,97 +6314,97 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.2296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.39445999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
-        <v>1.529E-2</v>
+        <v>1.941E-2</v>
       </c>
       <c r="C36">
-        <v>2.1260000000000001E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="D36">
-        <v>2.5999999999999999E-2</v>
+        <v>3.0159999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>3.2710000000000003E-2</v>
+        <v>3.6420000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>5.4829999999999997E-2</v>
+        <v>5.5919999999999997E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaG_median</v>
+        <v>sigmaA_median</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.0159999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1">
-        <v>1.5270000000000001E-2</v>
+        <v>1.8489999999999999E-2</v>
       </c>
       <c r="C37">
-        <v>2.0910000000000002E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="D37">
-        <v>2.5430000000000001E-2</v>
+        <v>2.911E-2</v>
       </c>
       <c r="E37">
-        <v>3.1809999999999998E-2</v>
+        <v>3.5110000000000002E-2</v>
       </c>
       <c r="F37">
-        <v>5.3589999999999999E-2</v>
+        <v>5.3310000000000003E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>sigmaI_median</v>
+        <v>sigmaG_median</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>2.5430000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.911E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="3">CONCATENATE(A41,"_rhat")</f>
@@ -6396,7 +6415,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -6415,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -6434,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -6453,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -6472,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -6491,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6510,9 +6529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6522,16 +6541,16 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaG_rhat</v>
+        <v>sigmaA_rhat</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6541,25 +6560,25 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
-        <v>sigmaI_rhat</v>
+        <v>sigmaG_rhat</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -6569,12 +6588,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -6594,36 +6613,40 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55">
+        <v>10614.6</v>
+      </c>
+      <c r="C55">
+        <v>425904.07</v>
+      </c>
+      <c r="D55">
+        <v>10568.72</v>
+      </c>
+      <c r="E55">
+        <v>62772.41</v>
+      </c>
+      <c r="F55">
+        <v>601793.94999999995</v>
+      </c>
+      <c r="G55">
+        <v>63104.3</v>
+      </c>
+      <c r="H55">
+        <v>222672.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1905.81</v>
-      </c>
-      <c r="C55">
-        <v>1752.2170000000001</v>
-      </c>
-      <c r="D55">
-        <v>1946.741</v>
-      </c>
-      <c r="E55">
-        <v>4636.1580000000004</v>
-      </c>
-      <c r="F55">
-        <v>1690.2329999999999</v>
-      </c>
-      <c r="G55">
-        <v>4560.375</v>
-      </c>
-      <c r="H55">
-        <v>18116.617999999999</v>
-      </c>
-      <c r="I55">
-        <v>19734.226999999999</v>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>257456.72</v>
       </c>
     </row>
   </sheetData>
